--- a/Pre exp/Rewa_Sequence.xlsx
+++ b/Pre exp/Rewa_Sequence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOE\Downloads\Rewa Exp-20230711T012626Z-002\Rewa Exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOE\Desktop\Rewa\Rewa Exp-20230711T012626Z-002\Rewa Exp\Pre exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>color1</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Countdown_2s.jpg</t>
+  </si>
+  <si>
+    <t>[-1.0000, 1.0000, -1.0000]</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -491,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -508,13 +508,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -539,16 +539,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -556,16 +556,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -573,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
